--- a/Übung 2/pdfs/todesarten.xlsx
+++ b/Übung 2/pdfs/todesarten.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Studium\Master\InfoVis\Übungsabgaben\Übung 2\pdfs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1170" yWindow="0" windowWidth="27630" windowHeight="14820" tabRatio="268" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="14">
   <si>
     <t>Geschlecht</t>
   </si>
@@ -62,32 +67,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -105,1353 +91,2894 @@
     </fill>
   </fills>
   <borders count="3">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="medium"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
-      <right style="medium"/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:AC14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="37.9234693877551"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5204081632653"/>
+    <col min="1" max="1" width="37.85546875"/>
+    <col min="2" max="1025" width="11.5703125"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="I1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="J1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="K1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="M1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="N1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="O1" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="P1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="R1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="S1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="T1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="V1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="W1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="X1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AB1" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="AC1" s="0" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="n">
+    <row r="1" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1">
+        <v>0</v>
+      </c>
+      <c r="E1" s="1">
+        <v>0</v>
+      </c>
+      <c r="F1" s="1">
+        <v>0</v>
+      </c>
+      <c r="G1" s="1">
+        <v>0</v>
+      </c>
+      <c r="H1" s="1">
+        <v>0</v>
+      </c>
+      <c r="I1" s="1">
+        <v>0</v>
+      </c>
+      <c r="J1" s="1">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1">
+        <v>0</v>
+      </c>
+      <c r="L1" s="1">
+        <v>0</v>
+      </c>
+      <c r="M1" s="1">
+        <v>0</v>
+      </c>
+      <c r="N1" s="1">
+        <v>0</v>
+      </c>
+      <c r="O1" s="1">
+        <v>0</v>
+      </c>
+      <c r="P1">
+        <v>1</v>
+      </c>
+      <c r="Q1">
+        <v>1</v>
+      </c>
+      <c r="R1">
+        <v>1</v>
+      </c>
+      <c r="S1">
+        <v>1</v>
+      </c>
+      <c r="T1">
+        <v>1</v>
+      </c>
+      <c r="U1">
+        <v>1</v>
+      </c>
+      <c r="V1">
+        <v>1</v>
+      </c>
+      <c r="W1">
+        <v>1</v>
+      </c>
+      <c r="X1">
+        <v>1</v>
+      </c>
+      <c r="Y1">
+        <v>1</v>
+      </c>
+      <c r="Z1">
+        <v>1</v>
+      </c>
+      <c r="AA1">
+        <v>1</v>
+      </c>
+      <c r="AB1">
+        <v>1</v>
+      </c>
+      <c r="AC1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" ht="15" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>20</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1">
         <v>25</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="1">
         <v>30</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="1">
         <v>35</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="1">
         <v>40</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="1">
         <v>45</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="1">
         <v>50</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="I2" s="1">
         <v>55</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="J2" s="1">
         <v>60</v>
       </c>
-      <c r="K2" s="1" t="n">
+      <c r="K2" s="1">
         <v>65</v>
       </c>
-      <c r="L2" s="1" t="n">
+      <c r="L2" s="1">
         <v>70</v>
       </c>
-      <c r="M2" s="1" t="n">
+      <c r="M2" s="1">
         <v>75</v>
       </c>
-      <c r="N2" s="1" t="n">
+      <c r="N2" s="1">
         <v>80</v>
       </c>
-      <c r="O2" s="1" t="n">
+      <c r="O2" s="1">
         <v>85</v>
       </c>
-      <c r="P2" s="1" t="n">
+      <c r="P2" s="1">
         <v>20</v>
       </c>
-      <c r="Q2" s="1" t="n">
+      <c r="Q2" s="1">
         <v>25</v>
       </c>
-      <c r="R2" s="1" t="n">
+      <c r="R2" s="1">
         <v>30</v>
       </c>
-      <c r="S2" s="1" t="n">
+      <c r="S2" s="1">
         <v>35</v>
       </c>
-      <c r="T2" s="1" t="n">
+      <c r="T2" s="1">
         <v>40</v>
       </c>
-      <c r="U2" s="1" t="n">
+      <c r="U2" s="1">
         <v>45</v>
       </c>
-      <c r="V2" s="1" t="n">
+      <c r="V2" s="1">
         <v>50</v>
       </c>
-      <c r="W2" s="1" t="n">
+      <c r="W2" s="1">
         <v>55</v>
       </c>
-      <c r="X2" s="1" t="n">
+      <c r="X2" s="1">
         <v>60</v>
       </c>
-      <c r="Y2" s="1" t="n">
+      <c r="Y2" s="1">
         <v>65</v>
       </c>
-      <c r="Z2" s="1" t="n">
+      <c r="Z2" s="1">
         <v>70</v>
       </c>
-      <c r="AA2" s="1" t="n">
+      <c r="AA2" s="1">
         <v>75</v>
       </c>
-      <c r="AB2" s="1" t="n">
+      <c r="AB2" s="1">
         <v>80</v>
       </c>
-      <c r="AC2" s="1" t="n">
+      <c r="AC2" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="3">
         <v>1236</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="3">
         <v>1372</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="3">
         <v>1685</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="3">
         <v>2172</v>
       </c>
-      <c r="F3" s="3" t="n">
+      <c r="F3" s="3">
         <v>4770</v>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="3">
         <v>9607</v>
       </c>
-      <c r="H3" s="3" t="n">
+      <c r="H3" s="3">
         <v>15483</v>
       </c>
-      <c r="I3" s="3" t="n">
+      <c r="I3" s="3">
         <v>21569</v>
       </c>
-      <c r="J3" s="3" t="n">
+      <c r="J3" s="3">
         <v>28875</v>
       </c>
-      <c r="K3" s="3" t="n">
+      <c r="K3" s="3">
         <v>34259</v>
       </c>
-      <c r="L3" s="3" t="n">
+      <c r="L3" s="3">
         <v>61058</v>
       </c>
-      <c r="M3" s="3" t="n">
+      <c r="M3" s="3">
         <v>68492</v>
       </c>
-      <c r="N3" s="3" t="n">
+      <c r="N3" s="3">
         <v>74317</v>
       </c>
-      <c r="O3" s="3" t="n">
+      <c r="O3" s="3">
         <v>88994</v>
       </c>
-      <c r="P3" s="3" t="n">
+      <c r="P3" s="3">
         <v>460</v>
       </c>
-      <c r="Q3" s="3" t="n">
+      <c r="Q3" s="3">
         <v>564</v>
       </c>
-      <c r="R3" s="3" t="n">
+      <c r="R3" s="3">
         <v>766</v>
       </c>
-      <c r="S3" s="3" t="n">
+      <c r="S3" s="3">
         <v>1177</v>
       </c>
-      <c r="T3" s="3" t="n">
+      <c r="T3" s="3">
         <v>2633</v>
       </c>
-      <c r="U3" s="3" t="n">
+      <c r="U3" s="3">
         <v>5283</v>
       </c>
-      <c r="V3" s="3" t="n">
+      <c r="V3" s="3">
         <v>8365</v>
       </c>
-      <c r="W3" s="3" t="n">
+      <c r="W3" s="3">
         <v>11216</v>
       </c>
-      <c r="X3" s="3" t="n">
+      <c r="X3" s="3">
         <v>15572</v>
       </c>
-      <c r="Y3" s="3" t="n">
+      <c r="Y3" s="3">
         <v>19394</v>
       </c>
-      <c r="Z3" s="3" t="n">
+      <c r="Z3" s="3">
         <v>37960</v>
       </c>
-      <c r="AA3" s="3" t="n">
+      <c r="AA3" s="3">
         <v>53017</v>
       </c>
-      <c r="AB3" s="3" t="n">
+      <c r="AB3" s="3">
         <v>79673</v>
       </c>
-      <c r="AC3" s="3" t="n">
+      <c r="AC3" s="3">
         <v>215344</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="3">
         <v>109</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="3">
         <v>137</v>
       </c>
-      <c r="D4" s="3" t="n">
+      <c r="D4" s="3">
         <v>218</v>
       </c>
-      <c r="E4" s="3" t="n">
+      <c r="E4" s="3">
         <v>370</v>
       </c>
-      <c r="F4" s="3" t="n">
+      <c r="F4" s="3">
         <v>980</v>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="3">
         <v>2544</v>
       </c>
-      <c r="H4" s="3" t="n">
+      <c r="H4" s="3">
         <v>5073</v>
       </c>
-      <c r="I4" s="3" t="n">
+      <c r="I4" s="3">
         <v>8191</v>
       </c>
-      <c r="J4" s="3" t="n">
+      <c r="J4" s="3">
         <v>11581</v>
       </c>
-      <c r="K4" s="3" t="n">
+      <c r="K4" s="3">
         <v>13914</v>
       </c>
-      <c r="L4" s="3" t="n">
+      <c r="L4" s="3">
         <v>22759</v>
       </c>
-      <c r="M4" s="3" t="n">
+      <c r="M4" s="3">
         <v>21315</v>
       </c>
-      <c r="N4" s="3" t="n">
+      <c r="N4" s="3">
         <v>18160</v>
       </c>
-      <c r="O4" s="3" t="n">
+      <c r="O4" s="3">
         <v>14513</v>
       </c>
-      <c r="P4" s="3" t="n">
+      <c r="P4" s="3">
         <v>63</v>
       </c>
-      <c r="Q4" s="3" t="n">
+      <c r="Q4" s="3">
         <v>130</v>
       </c>
-      <c r="R4" s="3" t="n">
+      <c r="R4" s="3">
         <v>232</v>
       </c>
-      <c r="S4" s="3" t="n">
+      <c r="S4" s="3">
         <v>488</v>
       </c>
-      <c r="T4" s="3" t="n">
+      <c r="T4" s="3">
         <v>1211</v>
       </c>
-      <c r="U4" s="3" t="n">
+      <c r="U4" s="3">
         <v>2558</v>
       </c>
-      <c r="V4" s="3" t="n">
+      <c r="V4" s="3">
         <v>4406</v>
       </c>
-      <c r="W4" s="3" t="n">
+      <c r="W4" s="3">
         <v>5992</v>
       </c>
-      <c r="X4" s="3" t="n">
+      <c r="X4" s="3">
         <v>7922</v>
       </c>
-      <c r="Y4" s="3" t="n">
+      <c r="Y4" s="3">
         <v>9314</v>
       </c>
-      <c r="Z4" s="3" t="n">
+      <c r="Z4" s="3">
         <v>15257</v>
       </c>
-      <c r="AA4" s="3" t="n">
+      <c r="AA4" s="3">
         <v>15736</v>
       </c>
-      <c r="AB4" s="3" t="n">
+      <c r="AB4" s="3">
         <v>15922</v>
       </c>
-      <c r="AC4" s="3" t="n">
+      <c r="AC4" s="3">
         <v>22157</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="3">
         <v>29</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="3">
         <v>29</v>
       </c>
-      <c r="D5" s="3" t="n">
+      <c r="D5" s="3">
         <v>49</v>
       </c>
-      <c r="E5" s="3" t="n">
+      <c r="E5" s="3">
         <v>53</v>
       </c>
-      <c r="F5" s="3" t="n">
+      <c r="F5" s="3">
         <v>152</v>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="3">
         <v>277</v>
       </c>
-      <c r="H5" s="3" t="n">
+      <c r="H5" s="3">
         <v>427</v>
       </c>
-      <c r="I5" s="3" t="n">
+      <c r="I5" s="3">
         <v>610</v>
       </c>
-      <c r="J5" s="3" t="n">
+      <c r="J5" s="3">
         <v>909</v>
       </c>
-      <c r="K5" s="3" t="n">
+      <c r="K5" s="3">
         <v>983</v>
       </c>
-      <c r="L5" s="3" t="n">
+      <c r="L5" s="3">
         <v>1804</v>
       </c>
-      <c r="M5" s="3" t="n">
+      <c r="M5" s="3">
         <v>2148</v>
       </c>
-      <c r="N5" s="3" t="n">
+      <c r="N5" s="3">
         <v>2331</v>
       </c>
-      <c r="O5" s="3" t="n">
+      <c r="O5" s="3">
         <v>2871</v>
       </c>
-      <c r="P5" s="3" t="n">
+      <c r="P5" s="3">
         <v>16</v>
       </c>
-      <c r="Q5" s="3" t="n">
+      <c r="Q5" s="3">
         <v>12</v>
       </c>
-      <c r="R5" s="3" t="n">
+      <c r="R5" s="3">
         <v>20</v>
       </c>
-      <c r="S5" s="3" t="n">
+      <c r="S5" s="3">
         <v>32</v>
       </c>
-      <c r="T5" s="3" t="n">
+      <c r="T5" s="3">
         <v>65</v>
       </c>
-      <c r="U5" s="3" t="n">
+      <c r="U5" s="3">
         <v>123</v>
       </c>
-      <c r="V5" s="3" t="n">
+      <c r="V5" s="3">
         <v>210</v>
       </c>
-      <c r="W5" s="3" t="n">
+      <c r="W5" s="3">
         <v>259</v>
       </c>
-      <c r="X5" s="3" t="n">
+      <c r="X5" s="3">
         <v>433</v>
       </c>
-      <c r="Y5" s="3" t="n">
+      <c r="Y5" s="3">
         <v>587</v>
       </c>
-      <c r="Z5" s="3" t="n">
+      <c r="Z5" s="3">
         <v>1237</v>
       </c>
-      <c r="AA5" s="3" t="n">
+      <c r="AA5" s="3">
         <v>2145</v>
       </c>
-      <c r="AB5" s="3" t="n">
+      <c r="AB5" s="3">
         <v>3482</v>
       </c>
-      <c r="AC5" s="3" t="n">
+      <c r="AC5" s="3">
         <v>9192</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="n">
+      <c r="B6" s="3">
         <v>6</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>9</v>
       </c>
-      <c r="D6" s="3" t="n">
+      <c r="D6" s="3">
         <v>22</v>
       </c>
-      <c r="E6" s="3" t="n">
+      <c r="E6" s="3">
         <v>24</v>
       </c>
-      <c r="F6" s="3" t="n">
+      <c r="F6" s="3">
         <v>74</v>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="3">
         <v>159</v>
       </c>
-      <c r="H6" s="3" t="n">
+      <c r="H6" s="3">
         <v>272</v>
       </c>
-      <c r="I6" s="3" t="n">
+      <c r="I6" s="3">
         <v>398</v>
       </c>
-      <c r="J6" s="3" t="n">
+      <c r="J6" s="3">
         <v>660</v>
       </c>
-      <c r="K6" s="3" t="n">
+      <c r="K6" s="3">
         <v>781</v>
       </c>
-      <c r="L6" s="3" t="n">
+      <c r="L6" s="3">
         <v>1509</v>
       </c>
-      <c r="M6" s="3" t="n">
+      <c r="M6" s="3">
         <v>1823</v>
       </c>
-      <c r="N6" s="3" t="n">
+      <c r="N6" s="3">
         <v>1980</v>
       </c>
-      <c r="O6" s="3" t="n">
+      <c r="O6" s="3">
         <v>2355</v>
       </c>
-      <c r="P6" s="3" t="n">
+      <c r="P6" s="3">
         <v>6</v>
       </c>
-      <c r="Q6" s="3" t="n">
+      <c r="Q6" s="3">
         <v>4</v>
       </c>
-      <c r="R6" s="3" t="n">
+      <c r="R6" s="3">
         <v>6</v>
       </c>
-      <c r="S6" s="3" t="n">
+      <c r="S6" s="3">
         <v>9</v>
       </c>
-      <c r="T6" s="3" t="n">
+      <c r="T6" s="3">
         <v>29</v>
       </c>
-      <c r="U6" s="3" t="n">
+      <c r="U6" s="3">
         <v>60</v>
       </c>
-      <c r="V6" s="3" t="n">
+      <c r="V6" s="3">
         <v>97</v>
       </c>
-      <c r="W6" s="3" t="n">
+      <c r="W6" s="3">
         <v>149</v>
       </c>
-      <c r="X6" s="3" t="n">
+      <c r="X6" s="3">
         <v>263</v>
       </c>
-      <c r="Y6" s="3" t="n">
+      <c r="Y6" s="3">
         <v>402</v>
       </c>
-      <c r="Z6" s="3" t="n">
+      <c r="Z6" s="3">
         <v>933</v>
       </c>
-      <c r="AA6" s="3" t="n">
+      <c r="AA6" s="3">
         <v>1746</v>
       </c>
-      <c r="AB6" s="3" t="n">
+      <c r="AB6" s="3">
         <v>2883</v>
       </c>
-      <c r="AC6" s="3" t="n">
+      <c r="AC6" s="3">
         <v>7389</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="3">
         <v>32</v>
       </c>
-      <c r="C7" s="3" t="n">
+      <c r="C7" s="3">
         <v>66</v>
       </c>
-      <c r="D7" s="3" t="n">
+      <c r="D7" s="3">
         <v>149</v>
       </c>
-      <c r="E7" s="3" t="n">
+      <c r="E7" s="3">
         <v>165</v>
       </c>
-      <c r="F7" s="3" t="n">
+      <c r="F7" s="3">
         <v>317</v>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="3">
         <v>561</v>
       </c>
-      <c r="H7" s="3" t="n">
+      <c r="H7" s="3">
         <v>727</v>
       </c>
-      <c r="I7" s="3" t="n">
+      <c r="I7" s="3">
         <v>759</v>
       </c>
-      <c r="J7" s="3" t="n">
+      <c r="J7" s="3">
         <v>681</v>
       </c>
-      <c r="K7" s="3" t="n">
+      <c r="K7" s="3">
         <v>610</v>
       </c>
-      <c r="L7" s="3" t="n">
+      <c r="L7" s="3">
         <v>975</v>
       </c>
-      <c r="M7" s="3" t="n">
+      <c r="M7" s="3">
         <v>1371</v>
       </c>
-      <c r="N7" s="3" t="n">
+      <c r="N7" s="3">
         <v>2160</v>
       </c>
-      <c r="O7" s="3" t="n">
+      <c r="O7" s="3">
         <v>3606</v>
       </c>
-      <c r="P7" s="3" t="n">
+      <c r="P7" s="3">
         <v>15</v>
       </c>
-      <c r="Q7" s="3" t="n">
+      <c r="Q7" s="3">
         <v>26</v>
       </c>
-      <c r="R7" s="3" t="n">
+      <c r="R7" s="3">
         <v>37</v>
       </c>
-      <c r="S7" s="3" t="n">
+      <c r="S7" s="3">
         <v>34</v>
       </c>
-      <c r="T7" s="3" t="n">
+      <c r="T7" s="3">
         <v>93</v>
       </c>
-      <c r="U7" s="3" t="n">
+      <c r="U7" s="3">
         <v>159</v>
       </c>
-      <c r="V7" s="3" t="n">
+      <c r="V7" s="3">
         <v>188</v>
       </c>
-      <c r="W7" s="3" t="n">
+      <c r="W7" s="3">
         <v>189</v>
       </c>
-      <c r="X7" s="3" t="n">
+      <c r="X7" s="3">
         <v>212</v>
       </c>
-      <c r="Y7" s="3" t="n">
+      <c r="Y7" s="3">
         <v>248</v>
       </c>
-      <c r="Z7" s="3" t="n">
+      <c r="Z7" s="3">
         <v>620</v>
       </c>
-      <c r="AA7" s="3" t="n">
+      <c r="AA7" s="3">
         <v>1323</v>
       </c>
-      <c r="AB7" s="3" t="n">
+      <c r="AB7" s="3">
         <v>3071</v>
       </c>
-      <c r="AC7" s="3" t="n">
+      <c r="AC7" s="3">
         <v>12486</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="n">
+      <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="3" t="n">
+      <c r="C8" s="3">
         <v>4</v>
       </c>
-      <c r="D8" s="3" t="n">
+      <c r="D8" s="3">
         <v>7</v>
       </c>
-      <c r="E8" s="3" t="n">
+      <c r="E8" s="3">
         <v>15</v>
       </c>
-      <c r="F8" s="3" t="n">
+      <c r="F8" s="3">
         <v>37</v>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="3">
         <v>110</v>
       </c>
-      <c r="H8" s="3" t="n">
+      <c r="H8" s="3">
         <v>180</v>
       </c>
-      <c r="I8" s="3" t="n">
+      <c r="I8" s="3">
         <v>265</v>
       </c>
-      <c r="J8" s="3" t="n">
+      <c r="J8" s="3">
         <v>397</v>
       </c>
-      <c r="K8" s="3" t="n">
+      <c r="K8" s="3">
         <v>520</v>
       </c>
-      <c r="L8" s="3" t="n">
+      <c r="L8" s="3">
         <v>973</v>
       </c>
-      <c r="M8" s="3" t="n">
+      <c r="M8" s="3">
         <v>1562</v>
       </c>
-      <c r="N8" s="3" t="n">
+      <c r="N8" s="3">
         <v>2302</v>
       </c>
-      <c r="O8" s="3" t="n">
+      <c r="O8" s="3">
         <v>4400</v>
       </c>
-      <c r="P8" s="3" t="n">
+      <c r="P8" s="3">
         <v>2</v>
       </c>
-      <c r="Q8" s="3" t="n">
-        <v>1</v>
-      </c>
-      <c r="R8" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3" t="n">
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
         <v>3</v>
       </c>
-      <c r="T8" s="3" t="n">
+      <c r="T8" s="3">
         <v>16</v>
       </c>
-      <c r="U8" s="3" t="n">
+      <c r="U8" s="3">
         <v>32</v>
       </c>
-      <c r="V8" s="3" t="n">
+      <c r="V8" s="3">
         <v>71</v>
       </c>
-      <c r="W8" s="3" t="n">
+      <c r="W8" s="3">
         <v>108</v>
       </c>
-      <c r="X8" s="3" t="n">
+      <c r="X8" s="3">
         <v>198</v>
       </c>
-      <c r="Y8" s="3" t="n">
+      <c r="Y8" s="3">
         <v>264</v>
       </c>
-      <c r="Z8" s="3" t="n">
+      <c r="Z8" s="3">
         <v>870</v>
       </c>
-      <c r="AA8" s="3" t="n">
+      <c r="AA8" s="3">
         <v>1874</v>
       </c>
-      <c r="AB8" s="3" t="n">
+      <c r="AB8" s="3">
         <v>4192</v>
       </c>
-      <c r="AC8" s="3" t="n">
+      <c r="AC8" s="3">
         <v>17580</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="n">
+      <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="3" t="n">
+      <c r="C9" s="3">
         <v>19</v>
       </c>
-      <c r="D9" s="3" t="n">
+      <c r="D9" s="3">
         <v>34</v>
       </c>
-      <c r="E9" s="3" t="n">
+      <c r="E9" s="3">
         <v>108</v>
       </c>
-      <c r="F9" s="3" t="n">
+      <c r="F9" s="3">
         <v>315</v>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="3">
         <v>801</v>
       </c>
-      <c r="H9" s="3" t="n">
+      <c r="H9" s="3">
         <v>1411</v>
       </c>
-      <c r="I9" s="3" t="n">
+      <c r="I9" s="3">
         <v>1809</v>
       </c>
-      <c r="J9" s="3" t="n">
+      <c r="J9" s="3">
         <v>2485</v>
       </c>
-      <c r="K9" s="3" t="n">
+      <c r="K9" s="3">
         <v>2637</v>
       </c>
-      <c r="L9" s="3" t="n">
+      <c r="L9" s="3">
         <v>4732</v>
       </c>
-      <c r="M9" s="3" t="n">
+      <c r="M9" s="3">
         <v>5224</v>
       </c>
-      <c r="N9" s="3" t="n">
+      <c r="N9" s="3">
         <v>5446</v>
       </c>
-      <c r="O9" s="3" t="n">
+      <c r="O9" s="3">
         <v>5869</v>
       </c>
-      <c r="P9" s="3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3" t="n">
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
         <v>8</v>
       </c>
-      <c r="R9" s="3" t="n">
+      <c r="R9" s="3">
         <v>13</v>
       </c>
-      <c r="S9" s="3" t="n">
+      <c r="S9" s="3">
         <v>25</v>
       </c>
-      <c r="T9" s="3" t="n">
+      <c r="T9" s="3">
         <v>56</v>
       </c>
-      <c r="U9" s="3" t="n">
+      <c r="U9" s="3">
         <v>154</v>
       </c>
-      <c r="V9" s="3" t="n">
+      <c r="V9" s="3">
         <v>279</v>
       </c>
-      <c r="W9" s="3" t="n">
+      <c r="W9" s="3">
         <v>430</v>
       </c>
-      <c r="X9" s="3" t="n">
+      <c r="X9" s="3">
         <v>742</v>
       </c>
-      <c r="Y9" s="3" t="n">
+      <c r="Y9" s="3">
         <v>886</v>
       </c>
-      <c r="Z9" s="3" t="n">
+      <c r="Z9" s="3">
         <v>2060</v>
       </c>
-      <c r="AA9" s="3" t="n">
+      <c r="AA9" s="3">
         <v>3276</v>
       </c>
-      <c r="AB9" s="3" t="n">
+      <c r="AB9" s="3">
         <v>4834</v>
       </c>
-      <c r="AC9" s="3" t="n">
+      <c r="AC9" s="3">
         <v>11768</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="n">
+      <c r="B10" s="3">
         <v>23</v>
       </c>
-      <c r="C10" s="3" t="n">
+      <c r="C10" s="3">
         <v>20</v>
       </c>
-      <c r="D10" s="3" t="n">
+      <c r="D10" s="3">
         <v>23</v>
       </c>
-      <c r="E10" s="3" t="n">
+      <c r="E10" s="3">
         <v>45</v>
       </c>
-      <c r="F10" s="3" t="n">
+      <c r="F10" s="3">
         <v>115</v>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="3">
         <v>259</v>
       </c>
-      <c r="H10" s="3" t="n">
+      <c r="H10" s="3">
         <v>457</v>
       </c>
-      <c r="I10" s="3" t="n">
+      <c r="I10" s="3">
         <v>893</v>
       </c>
-      <c r="J10" s="3" t="n">
+      <c r="J10" s="3">
         <v>1558</v>
       </c>
-      <c r="K10" s="3" t="n">
+      <c r="K10" s="3">
         <v>2398</v>
       </c>
-      <c r="L10" s="3" t="n">
+      <c r="L10" s="3">
         <v>4788</v>
       </c>
-      <c r="M10" s="3" t="n">
+      <c r="M10" s="3">
         <v>6023</v>
       </c>
-      <c r="N10" s="3" t="n">
+      <c r="N10" s="3">
         <v>7077</v>
       </c>
-      <c r="O10" s="3" t="n">
+      <c r="O10" s="3">
         <v>8506</v>
       </c>
-      <c r="P10" s="3" t="n">
+      <c r="P10" s="3">
         <v>12</v>
       </c>
-      <c r="Q10" s="3" t="n">
+      <c r="Q10" s="3">
         <v>17</v>
       </c>
-      <c r="R10" s="3" t="n">
+      <c r="R10" s="3">
         <v>17</v>
       </c>
-      <c r="S10" s="3" t="n">
+      <c r="S10" s="3">
         <v>27</v>
       </c>
-      <c r="T10" s="3" t="n">
+      <c r="T10" s="3">
         <v>56</v>
       </c>
-      <c r="U10" s="3" t="n">
+      <c r="U10" s="3">
         <v>127</v>
       </c>
-      <c r="V10" s="3" t="n">
+      <c r="V10" s="3">
         <v>283</v>
       </c>
-      <c r="W10" s="3" t="n">
+      <c r="W10" s="3">
         <v>499</v>
       </c>
-      <c r="X10" s="3" t="n">
+      <c r="X10" s="3">
         <v>934</v>
       </c>
-      <c r="Y10" s="3" t="n">
+      <c r="Y10" s="3">
         <v>1249</v>
       </c>
-      <c r="Z10" s="3" t="n">
+      <c r="Z10" s="3">
         <v>2560</v>
       </c>
-      <c r="AA10" s="3" t="n">
+      <c r="AA10" s="3">
         <v>3658</v>
       </c>
-      <c r="AB10" s="3" t="n">
+      <c r="AB10" s="3">
         <v>5452</v>
       </c>
-      <c r="AC10" s="3" t="n">
+      <c r="AC10" s="3">
         <v>13304</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="n">
+      <c r="B11" s="3">
         <v>442</v>
       </c>
-      <c r="C11" s="3" t="n">
+      <c r="C11" s="3">
         <v>350</v>
       </c>
-      <c r="D11" s="3" t="n">
+      <c r="D11" s="3">
         <v>294</v>
       </c>
-      <c r="E11" s="3" t="n">
+      <c r="E11" s="3">
         <v>248</v>
       </c>
-      <c r="F11" s="3" t="n">
+      <c r="F11" s="3">
         <v>385</v>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="3">
         <v>574</v>
       </c>
-      <c r="H11" s="3" t="n">
+      <c r="H11" s="3">
         <v>623</v>
       </c>
-      <c r="I11" s="3" t="n">
+      <c r="I11" s="3">
         <v>687</v>
       </c>
-      <c r="J11" s="3" t="n">
+      <c r="J11" s="3">
         <v>650</v>
       </c>
-      <c r="K11" s="3" t="n">
+      <c r="K11" s="3">
         <v>607</v>
       </c>
-      <c r="L11" s="3" t="n">
+      <c r="L11" s="3">
         <v>1172</v>
       </c>
-      <c r="M11" s="3" t="n">
+      <c r="M11" s="3">
         <v>1237</v>
       </c>
-      <c r="N11" s="3" t="n">
+      <c r="N11" s="3">
         <v>1478</v>
       </c>
-      <c r="O11" s="3" t="n">
+      <c r="O11" s="3">
         <v>2105</v>
       </c>
-      <c r="P11" s="3" t="n">
+      <c r="P11" s="3">
         <v>117</v>
       </c>
-      <c r="Q11" s="3" t="n">
+      <c r="Q11" s="3">
         <v>75</v>
       </c>
-      <c r="R11" s="3" t="n">
+      <c r="R11" s="3">
         <v>74</v>
       </c>
-      <c r="S11" s="3" t="n">
+      <c r="S11" s="3">
         <v>63</v>
       </c>
-      <c r="T11" s="3" t="n">
+      <c r="T11" s="3">
         <v>116</v>
       </c>
-      <c r="U11" s="3" t="n">
+      <c r="U11" s="3">
         <v>164</v>
       </c>
-      <c r="V11" s="3" t="n">
+      <c r="V11" s="3">
         <v>189</v>
       </c>
-      <c r="W11" s="3" t="n">
+      <c r="W11" s="3">
         <v>208</v>
       </c>
-      <c r="X11" s="3" t="n">
+      <c r="X11" s="3">
         <v>278</v>
       </c>
-      <c r="Y11" s="3" t="n">
+      <c r="Y11" s="3">
         <v>305</v>
       </c>
-      <c r="Z11" s="3" t="n">
+      <c r="Z11" s="3">
         <v>703</v>
       </c>
-      <c r="AA11" s="3" t="n">
+      <c r="AA11" s="3">
         <v>957</v>
       </c>
-      <c r="AB11" s="3" t="n">
+      <c r="AB11" s="3">
         <v>1637</v>
       </c>
-      <c r="AC11" s="3" t="n">
+      <c r="AC11" s="3">
         <v>4540</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B12" s="3">
         <v>15</v>
       </c>
-      <c r="C12" s="3" t="n">
+      <c r="C12" s="3">
         <v>27</v>
       </c>
-      <c r="D12" s="3" t="n">
+      <c r="D12" s="3">
         <v>27</v>
       </c>
-      <c r="E12" s="3" t="n">
+      <c r="E12" s="3">
         <v>32</v>
       </c>
-      <c r="F12" s="3" t="n">
+      <c r="F12" s="3">
         <v>39</v>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="3">
         <v>112</v>
       </c>
-      <c r="H12" s="3" t="n">
+      <c r="H12" s="3">
         <v>147</v>
       </c>
-      <c r="I12" s="3" t="n">
+      <c r="I12" s="3">
         <v>208</v>
       </c>
-      <c r="J12" s="3" t="n">
+      <c r="J12" s="3">
         <v>232</v>
       </c>
-      <c r="K12" s="3" t="n">
+      <c r="K12" s="3">
         <v>246</v>
       </c>
-      <c r="L12" s="3" t="n">
+      <c r="L12" s="3">
         <v>506</v>
       </c>
-      <c r="M12" s="3" t="n">
+      <c r="M12" s="3">
         <v>672</v>
       </c>
-      <c r="N12" s="3" t="n">
+      <c r="N12" s="3">
         <v>940</v>
       </c>
-      <c r="O12" s="3" t="n">
+      <c r="O12" s="3">
         <v>1471</v>
       </c>
-      <c r="P12" s="3" t="n">
+      <c r="P12" s="3">
         <v>2</v>
       </c>
-      <c r="Q12" s="3" t="n">
+      <c r="Q12" s="3">
         <v>6</v>
       </c>
-      <c r="R12" s="3" t="n">
+      <c r="R12" s="3">
         <v>6</v>
       </c>
-      <c r="S12" s="3" t="n">
+      <c r="S12" s="3">
         <v>6</v>
       </c>
-      <c r="T12" s="3" t="n">
+      <c r="T12" s="3">
         <v>12</v>
       </c>
-      <c r="U12" s="3" t="n">
+      <c r="U12" s="3">
         <v>31</v>
       </c>
-      <c r="V12" s="3" t="n">
+      <c r="V12" s="3">
         <v>41</v>
       </c>
-      <c r="W12" s="3" t="n">
+      <c r="W12" s="3">
         <v>57</v>
       </c>
-      <c r="X12" s="3" t="n">
+      <c r="X12" s="3">
         <v>110</v>
       </c>
-      <c r="Y12" s="3" t="n">
+      <c r="Y12" s="3">
         <v>138</v>
       </c>
-      <c r="Z12" s="3" t="n">
+      <c r="Z12" s="3">
         <v>313</v>
       </c>
-      <c r="AA12" s="3" t="n">
+      <c r="AA12" s="3">
         <v>546</v>
       </c>
-      <c r="AB12" s="3" t="n">
+      <c r="AB12" s="3">
         <v>1062</v>
       </c>
-      <c r="AC12" s="3" t="n">
+      <c r="AC12" s="3">
         <v>3210</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="n">
+      <c r="B13" s="3">
         <v>300</v>
       </c>
-      <c r="C13" s="3" t="n">
+      <c r="C13" s="3">
         <v>336</v>
       </c>
-      <c r="D13" s="3" t="n">
+      <c r="D13" s="3">
         <v>362</v>
       </c>
-      <c r="E13" s="3" t="n">
+      <c r="E13" s="3">
         <v>327</v>
       </c>
-      <c r="F13" s="3" t="n">
+      <c r="F13" s="3">
         <v>593</v>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="3">
         <v>747</v>
       </c>
-      <c r="H13" s="3" t="n">
+      <c r="H13" s="3">
         <v>740</v>
       </c>
-      <c r="I13" s="3" t="n">
+      <c r="I13" s="3">
         <v>678</v>
       </c>
-      <c r="J13" s="3" t="n">
+      <c r="J13" s="3">
         <v>558</v>
       </c>
-      <c r="K13" s="3" t="n">
+      <c r="K13" s="3">
         <v>452</v>
       </c>
-      <c r="L13" s="3" t="n">
+      <c r="L13" s="3">
         <v>614</v>
       </c>
-      <c r="M13" s="3" t="n">
+      <c r="M13" s="3">
         <v>542</v>
       </c>
-      <c r="N13" s="3" t="n">
+      <c r="N13" s="3">
         <v>464</v>
       </c>
-      <c r="O13" s="3" t="n">
+      <c r="O13" s="3">
         <v>424</v>
       </c>
-      <c r="P13" s="3" t="n">
+      <c r="P13" s="3">
         <v>76</v>
       </c>
-      <c r="Q13" s="3" t="n">
+      <c r="Q13" s="3">
         <v>90</v>
       </c>
-      <c r="R13" s="3" t="n">
+      <c r="R13" s="3">
         <v>97</v>
       </c>
-      <c r="S13" s="3" t="n">
+      <c r="S13" s="3">
         <v>99</v>
       </c>
-      <c r="T13" s="3" t="n">
+      <c r="T13" s="3">
         <v>176</v>
       </c>
-      <c r="U13" s="3" t="n">
+      <c r="U13" s="3">
         <v>267</v>
       </c>
-      <c r="V13" s="3" t="n">
+      <c r="V13" s="3">
         <v>267</v>
       </c>
-      <c r="W13" s="3" t="n">
+      <c r="W13" s="3">
         <v>248</v>
       </c>
-      <c r="X13" s="3" t="n">
+      <c r="X13" s="3">
         <v>179</v>
       </c>
-      <c r="Y13" s="3" t="n">
+      <c r="Y13" s="3">
         <v>191</v>
       </c>
-      <c r="Z13" s="3" t="n">
+      <c r="Z13" s="3">
         <v>252</v>
       </c>
-      <c r="AA13" s="3" t="n">
+      <c r="AA13" s="3">
         <v>202</v>
       </c>
-      <c r="AB13" s="3" t="n">
+      <c r="AB13" s="3">
         <v>174</v>
       </c>
-      <c r="AC13" s="3" t="n">
+      <c r="AC13" s="3">
         <v>231</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:29" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="n">
+      <c r="B14" s="3">
         <v>15</v>
       </c>
-      <c r="C14" s="3" t="n">
+      <c r="C14" s="3">
         <v>12</v>
       </c>
-      <c r="D14" s="3" t="n">
+      <c r="D14" s="3">
         <v>16</v>
       </c>
-      <c r="E14" s="3" t="n">
+      <c r="E14" s="3">
         <v>11</v>
       </c>
-      <c r="F14" s="3" t="n">
+      <c r="F14" s="3">
         <v>15</v>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="3">
         <v>26</v>
       </c>
-      <c r="H14" s="3" t="n">
+      <c r="H14" s="3">
         <v>11</v>
       </c>
-      <c r="I14" s="3" t="n">
+      <c r="I14" s="3">
         <v>17</v>
       </c>
-      <c r="J14" s="3" t="n">
+      <c r="J14" s="3">
         <v>11</v>
       </c>
-      <c r="K14" s="3" t="n">
+      <c r="K14" s="3">
         <v>9</v>
       </c>
-      <c r="L14" s="3" t="n">
+      <c r="L14" s="3">
         <v>6</v>
       </c>
-      <c r="M14" s="3" t="n">
+      <c r="M14" s="3">
         <v>4</v>
       </c>
-      <c r="N14" s="3" t="n">
+      <c r="N14" s="3">
         <v>6</v>
       </c>
-      <c r="O14" s="3" t="n">
+      <c r="O14" s="3">
         <v>3</v>
       </c>
-      <c r="P14" s="3" t="n">
+      <c r="P14" s="3">
         <v>9</v>
       </c>
-      <c r="Q14" s="3" t="n">
+      <c r="Q14" s="3">
         <v>9</v>
       </c>
-      <c r="R14" s="3" t="n">
+      <c r="R14" s="3">
         <v>14</v>
       </c>
-      <c r="S14" s="3" t="n">
+      <c r="S14" s="3">
         <v>11</v>
       </c>
-      <c r="T14" s="3" t="n">
+      <c r="T14" s="3">
         <v>21</v>
       </c>
-      <c r="U14" s="3" t="n">
+      <c r="U14" s="3">
         <v>10</v>
       </c>
-      <c r="V14" s="3" t="n">
+      <c r="V14" s="3">
         <v>10</v>
       </c>
-      <c r="W14" s="3" t="n">
+      <c r="W14" s="3">
         <v>10</v>
       </c>
-      <c r="X14" s="3" t="n">
+      <c r="X14" s="3">
         <v>8</v>
       </c>
-      <c r="Y14" s="3" t="n">
+      <c r="Y14" s="3">
         <v>13</v>
       </c>
-      <c r="Z14" s="3" t="n">
+      <c r="Z14" s="3">
         <v>10</v>
       </c>
-      <c r="AA14" s="3" t="n">
+      <c r="AA14" s="3">
         <v>12</v>
       </c>
-      <c r="AB14" s="3" t="n">
+      <c r="AB14" s="3">
         <v>13</v>
       </c>
-      <c r="AC14" s="3" t="n">
+      <c r="AC14" s="3">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>1236</v>
+      </c>
+      <c r="D2">
+        <v>109</v>
+      </c>
+      <c r="E2">
+        <v>29</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>32</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>23</v>
+      </c>
+      <c r="K2">
+        <v>442</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>300</v>
+      </c>
+      <c r="N2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>1372</v>
+      </c>
+      <c r="D3">
+        <v>137</v>
+      </c>
+      <c r="E3">
+        <v>29</v>
+      </c>
+      <c r="F3">
+        <v>9</v>
+      </c>
+      <c r="G3">
+        <v>66</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>20</v>
+      </c>
+      <c r="K3">
+        <v>350</v>
+      </c>
+      <c r="L3">
+        <v>27</v>
+      </c>
+      <c r="M3">
+        <v>336</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4">
+        <v>1685</v>
+      </c>
+      <c r="D4">
+        <v>218</v>
+      </c>
+      <c r="E4">
+        <v>49</v>
+      </c>
+      <c r="F4">
+        <v>22</v>
+      </c>
+      <c r="G4">
+        <v>149</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
+      </c>
+      <c r="I4">
+        <v>34</v>
+      </c>
+      <c r="J4">
+        <v>23</v>
+      </c>
+      <c r="K4">
+        <v>294</v>
+      </c>
+      <c r="L4">
+        <v>27</v>
+      </c>
+      <c r="M4">
+        <v>362</v>
+      </c>
+      <c r="N4">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>2172</v>
+      </c>
+      <c r="D5">
+        <v>370</v>
+      </c>
+      <c r="E5">
+        <v>53</v>
+      </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>165</v>
+      </c>
+      <c r="H5">
+        <v>15</v>
+      </c>
+      <c r="I5">
+        <v>108</v>
+      </c>
+      <c r="J5">
+        <v>45</v>
+      </c>
+      <c r="K5">
+        <v>248</v>
+      </c>
+      <c r="L5">
+        <v>32</v>
+      </c>
+      <c r="M5">
+        <v>327</v>
+      </c>
+      <c r="N5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>4770</v>
+      </c>
+      <c r="D6">
+        <v>980</v>
+      </c>
+      <c r="E6">
+        <v>152</v>
+      </c>
+      <c r="F6">
+        <v>74</v>
+      </c>
+      <c r="G6">
+        <v>317</v>
+      </c>
+      <c r="H6">
+        <v>37</v>
+      </c>
+      <c r="I6">
+        <v>315</v>
+      </c>
+      <c r="J6">
+        <v>115</v>
+      </c>
+      <c r="K6">
+        <v>385</v>
+      </c>
+      <c r="L6">
+        <v>39</v>
+      </c>
+      <c r="M6">
+        <v>593</v>
+      </c>
+      <c r="N6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>9607</v>
+      </c>
+      <c r="D7">
+        <v>2544</v>
+      </c>
+      <c r="E7">
+        <v>277</v>
+      </c>
+      <c r="F7">
+        <v>159</v>
+      </c>
+      <c r="G7">
+        <v>561</v>
+      </c>
+      <c r="H7">
+        <v>110</v>
+      </c>
+      <c r="I7">
+        <v>801</v>
+      </c>
+      <c r="J7">
+        <v>259</v>
+      </c>
+      <c r="K7">
+        <v>574</v>
+      </c>
+      <c r="L7">
+        <v>112</v>
+      </c>
+      <c r="M7">
+        <v>747</v>
+      </c>
+      <c r="N7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>15483</v>
+      </c>
+      <c r="D8">
+        <v>5073</v>
+      </c>
+      <c r="E8">
+        <v>427</v>
+      </c>
+      <c r="F8">
+        <v>272</v>
+      </c>
+      <c r="G8">
+        <v>727</v>
+      </c>
+      <c r="H8">
+        <v>180</v>
+      </c>
+      <c r="I8">
+        <v>1411</v>
+      </c>
+      <c r="J8">
+        <v>457</v>
+      </c>
+      <c r="K8">
+        <v>623</v>
+      </c>
+      <c r="L8">
+        <v>147</v>
+      </c>
+      <c r="M8">
+        <v>740</v>
+      </c>
+      <c r="N8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>21569</v>
+      </c>
+      <c r="D9">
+        <v>8191</v>
+      </c>
+      <c r="E9">
+        <v>610</v>
+      </c>
+      <c r="F9">
+        <v>398</v>
+      </c>
+      <c r="G9">
+        <v>759</v>
+      </c>
+      <c r="H9">
+        <v>265</v>
+      </c>
+      <c r="I9">
+        <v>1809</v>
+      </c>
+      <c r="J9">
+        <v>893</v>
+      </c>
+      <c r="K9">
+        <v>687</v>
+      </c>
+      <c r="L9">
+        <v>208</v>
+      </c>
+      <c r="M9">
+        <v>678</v>
+      </c>
+      <c r="N9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>28875</v>
+      </c>
+      <c r="D10">
+        <v>11581</v>
+      </c>
+      <c r="E10">
+        <v>909</v>
+      </c>
+      <c r="F10">
+        <v>660</v>
+      </c>
+      <c r="G10">
+        <v>681</v>
+      </c>
+      <c r="H10">
+        <v>397</v>
+      </c>
+      <c r="I10">
+        <v>2485</v>
+      </c>
+      <c r="J10">
+        <v>1558</v>
+      </c>
+      <c r="K10">
+        <v>650</v>
+      </c>
+      <c r="L10">
+        <v>232</v>
+      </c>
+      <c r="M10">
+        <v>558</v>
+      </c>
+      <c r="N10">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>65</v>
+      </c>
+      <c r="C11">
+        <v>34259</v>
+      </c>
+      <c r="D11">
+        <v>13914</v>
+      </c>
+      <c r="E11">
+        <v>983</v>
+      </c>
+      <c r="F11">
+        <v>781</v>
+      </c>
+      <c r="G11">
+        <v>610</v>
+      </c>
+      <c r="H11">
+        <v>520</v>
+      </c>
+      <c r="I11">
+        <v>2637</v>
+      </c>
+      <c r="J11">
+        <v>2398</v>
+      </c>
+      <c r="K11">
+        <v>607</v>
+      </c>
+      <c r="L11">
+        <v>246</v>
+      </c>
+      <c r="M11">
+        <v>452</v>
+      </c>
+      <c r="N11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>70</v>
+      </c>
+      <c r="C12">
+        <v>61058</v>
+      </c>
+      <c r="D12">
+        <v>22759</v>
+      </c>
+      <c r="E12">
+        <v>1804</v>
+      </c>
+      <c r="F12">
+        <v>1509</v>
+      </c>
+      <c r="G12">
+        <v>975</v>
+      </c>
+      <c r="H12">
+        <v>973</v>
+      </c>
+      <c r="I12">
+        <v>4732</v>
+      </c>
+      <c r="J12">
+        <v>4788</v>
+      </c>
+      <c r="K12">
+        <v>1172</v>
+      </c>
+      <c r="L12">
+        <v>506</v>
+      </c>
+      <c r="M12">
+        <v>614</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>75</v>
+      </c>
+      <c r="C13">
+        <v>68492</v>
+      </c>
+      <c r="D13">
+        <v>21315</v>
+      </c>
+      <c r="E13">
+        <v>2148</v>
+      </c>
+      <c r="F13">
+        <v>1823</v>
+      </c>
+      <c r="G13">
+        <v>1371</v>
+      </c>
+      <c r="H13">
+        <v>1562</v>
+      </c>
+      <c r="I13">
+        <v>5224</v>
+      </c>
+      <c r="J13">
+        <v>6023</v>
+      </c>
+      <c r="K13">
+        <v>1237</v>
+      </c>
+      <c r="L13">
+        <v>672</v>
+      </c>
+      <c r="M13">
+        <v>542</v>
+      </c>
+      <c r="N13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>80</v>
+      </c>
+      <c r="C14">
+        <v>74317</v>
+      </c>
+      <c r="D14">
+        <v>18160</v>
+      </c>
+      <c r="E14">
+        <v>2331</v>
+      </c>
+      <c r="F14">
+        <v>1980</v>
+      </c>
+      <c r="G14">
+        <v>2160</v>
+      </c>
+      <c r="H14">
+        <v>2302</v>
+      </c>
+      <c r="I14">
+        <v>5446</v>
+      </c>
+      <c r="J14">
+        <v>7077</v>
+      </c>
+      <c r="K14">
+        <v>1478</v>
+      </c>
+      <c r="L14">
+        <v>940</v>
+      </c>
+      <c r="M14">
+        <v>464</v>
+      </c>
+      <c r="N14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>85</v>
+      </c>
+      <c r="C15">
+        <v>88994</v>
+      </c>
+      <c r="D15">
+        <v>14513</v>
+      </c>
+      <c r="E15">
+        <v>2871</v>
+      </c>
+      <c r="F15">
+        <v>2355</v>
+      </c>
+      <c r="G15">
+        <v>3606</v>
+      </c>
+      <c r="H15">
+        <v>4400</v>
+      </c>
+      <c r="I15">
+        <v>5869</v>
+      </c>
+      <c r="J15">
+        <v>8506</v>
+      </c>
+      <c r="K15">
+        <v>2105</v>
+      </c>
+      <c r="L15">
+        <v>1471</v>
+      </c>
+      <c r="M15">
+        <v>424</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>460</v>
+      </c>
+      <c r="D16">
+        <v>63</v>
+      </c>
+      <c r="E16">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="G16">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>12</v>
+      </c>
+      <c r="K16">
+        <v>117</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>76</v>
+      </c>
+      <c r="N16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>564</v>
+      </c>
+      <c r="D17">
+        <v>130</v>
+      </c>
+      <c r="E17">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17">
+        <v>26</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>8</v>
+      </c>
+      <c r="J17">
+        <v>17</v>
+      </c>
+      <c r="K17">
+        <v>75</v>
+      </c>
+      <c r="L17">
+        <v>6</v>
+      </c>
+      <c r="M17">
+        <v>90</v>
+      </c>
+      <c r="N17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>766</v>
+      </c>
+      <c r="D18">
+        <v>232</v>
+      </c>
+      <c r="E18">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="G18">
+        <v>37</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>17</v>
+      </c>
+      <c r="K18">
+        <v>74</v>
+      </c>
+      <c r="L18">
+        <v>6</v>
+      </c>
+      <c r="M18">
+        <v>97</v>
+      </c>
+      <c r="N18">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>1177</v>
+      </c>
+      <c r="D19">
+        <v>488</v>
+      </c>
+      <c r="E19">
+        <v>32</v>
+      </c>
+      <c r="F19">
+        <v>9</v>
+      </c>
+      <c r="G19">
+        <v>34</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>25</v>
+      </c>
+      <c r="J19">
+        <v>27</v>
+      </c>
+      <c r="K19">
+        <v>63</v>
+      </c>
+      <c r="L19">
+        <v>6</v>
+      </c>
+      <c r="M19">
+        <v>99</v>
+      </c>
+      <c r="N19">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>2633</v>
+      </c>
+      <c r="D20">
+        <v>1211</v>
+      </c>
+      <c r="E20">
+        <v>65</v>
+      </c>
+      <c r="F20">
+        <v>29</v>
+      </c>
+      <c r="G20">
+        <v>93</v>
+      </c>
+      <c r="H20">
+        <v>16</v>
+      </c>
+      <c r="I20">
+        <v>56</v>
+      </c>
+      <c r="J20">
+        <v>56</v>
+      </c>
+      <c r="K20">
+        <v>116</v>
+      </c>
+      <c r="L20">
+        <v>12</v>
+      </c>
+      <c r="M20">
+        <v>176</v>
+      </c>
+      <c r="N20">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>5283</v>
+      </c>
+      <c r="D21">
+        <v>2558</v>
+      </c>
+      <c r="E21">
+        <v>123</v>
+      </c>
+      <c r="F21">
+        <v>60</v>
+      </c>
+      <c r="G21">
+        <v>159</v>
+      </c>
+      <c r="H21">
+        <v>32</v>
+      </c>
+      <c r="I21">
+        <v>154</v>
+      </c>
+      <c r="J21">
+        <v>127</v>
+      </c>
+      <c r="K21">
+        <v>164</v>
+      </c>
+      <c r="L21">
+        <v>31</v>
+      </c>
+      <c r="M21">
+        <v>267</v>
+      </c>
+      <c r="N21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>8365</v>
+      </c>
+      <c r="D22">
+        <v>4406</v>
+      </c>
+      <c r="E22">
+        <v>210</v>
+      </c>
+      <c r="F22">
+        <v>97</v>
+      </c>
+      <c r="G22">
+        <v>188</v>
+      </c>
+      <c r="H22">
+        <v>71</v>
+      </c>
+      <c r="I22">
+        <v>279</v>
+      </c>
+      <c r="J22">
+        <v>283</v>
+      </c>
+      <c r="K22">
+        <v>189</v>
+      </c>
+      <c r="L22">
+        <v>41</v>
+      </c>
+      <c r="M22">
+        <v>267</v>
+      </c>
+      <c r="N22">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>55</v>
+      </c>
+      <c r="C23">
+        <v>11216</v>
+      </c>
+      <c r="D23">
+        <v>5992</v>
+      </c>
+      <c r="E23">
+        <v>259</v>
+      </c>
+      <c r="F23">
+        <v>149</v>
+      </c>
+      <c r="G23">
+        <v>189</v>
+      </c>
+      <c r="H23">
+        <v>108</v>
+      </c>
+      <c r="I23">
+        <v>430</v>
+      </c>
+      <c r="J23">
+        <v>499</v>
+      </c>
+      <c r="K23">
+        <v>208</v>
+      </c>
+      <c r="L23">
+        <v>57</v>
+      </c>
+      <c r="M23">
+        <v>248</v>
+      </c>
+      <c r="N23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>60</v>
+      </c>
+      <c r="C24">
+        <v>15572</v>
+      </c>
+      <c r="D24">
+        <v>7922</v>
+      </c>
+      <c r="E24">
+        <v>433</v>
+      </c>
+      <c r="F24">
+        <v>263</v>
+      </c>
+      <c r="G24">
+        <v>212</v>
+      </c>
+      <c r="H24">
+        <v>198</v>
+      </c>
+      <c r="I24">
+        <v>742</v>
+      </c>
+      <c r="J24">
+        <v>934</v>
+      </c>
+      <c r="K24">
+        <v>278</v>
+      </c>
+      <c r="L24">
+        <v>110</v>
+      </c>
+      <c r="M24">
+        <v>179</v>
+      </c>
+      <c r="N24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>65</v>
+      </c>
+      <c r="C25">
+        <v>19394</v>
+      </c>
+      <c r="D25">
+        <v>9314</v>
+      </c>
+      <c r="E25">
+        <v>587</v>
+      </c>
+      <c r="F25">
+        <v>402</v>
+      </c>
+      <c r="G25">
+        <v>248</v>
+      </c>
+      <c r="H25">
+        <v>264</v>
+      </c>
+      <c r="I25">
+        <v>886</v>
+      </c>
+      <c r="J25">
+        <v>1249</v>
+      </c>
+      <c r="K25">
+        <v>305</v>
+      </c>
+      <c r="L25">
+        <v>138</v>
+      </c>
+      <c r="M25">
+        <v>191</v>
+      </c>
+      <c r="N25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>70</v>
+      </c>
+      <c r="C26">
+        <v>37960</v>
+      </c>
+      <c r="D26">
+        <v>15257</v>
+      </c>
+      <c r="E26">
+        <v>1237</v>
+      </c>
+      <c r="F26">
+        <v>933</v>
+      </c>
+      <c r="G26">
+        <v>620</v>
+      </c>
+      <c r="H26">
+        <v>870</v>
+      </c>
+      <c r="I26">
+        <v>2060</v>
+      </c>
+      <c r="J26">
+        <v>2560</v>
+      </c>
+      <c r="K26">
+        <v>703</v>
+      </c>
+      <c r="L26">
+        <v>313</v>
+      </c>
+      <c r="M26">
+        <v>252</v>
+      </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>75</v>
+      </c>
+      <c r="C27">
+        <v>53017</v>
+      </c>
+      <c r="D27">
+        <v>15736</v>
+      </c>
+      <c r="E27">
+        <v>2145</v>
+      </c>
+      <c r="F27">
+        <v>1746</v>
+      </c>
+      <c r="G27">
+        <v>1323</v>
+      </c>
+      <c r="H27">
+        <v>1874</v>
+      </c>
+      <c r="I27">
+        <v>3276</v>
+      </c>
+      <c r="J27">
+        <v>3658</v>
+      </c>
+      <c r="K27">
+        <v>957</v>
+      </c>
+      <c r="L27">
+        <v>546</v>
+      </c>
+      <c r="M27">
+        <v>202</v>
+      </c>
+      <c r="N27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>80</v>
+      </c>
+      <c r="C28">
+        <v>79673</v>
+      </c>
+      <c r="D28">
+        <v>15922</v>
+      </c>
+      <c r="E28">
+        <v>3482</v>
+      </c>
+      <c r="F28">
+        <v>2883</v>
+      </c>
+      <c r="G28">
+        <v>3071</v>
+      </c>
+      <c r="H28">
+        <v>4192</v>
+      </c>
+      <c r="I28">
+        <v>4834</v>
+      </c>
+      <c r="J28">
+        <v>5452</v>
+      </c>
+      <c r="K28">
+        <v>1637</v>
+      </c>
+      <c r="L28">
+        <v>1062</v>
+      </c>
+      <c r="M28">
+        <v>174</v>
+      </c>
+      <c r="N28">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>85</v>
+      </c>
+      <c r="C29">
+        <v>215344</v>
+      </c>
+      <c r="D29">
+        <v>22157</v>
+      </c>
+      <c r="E29">
+        <v>9192</v>
+      </c>
+      <c r="F29">
+        <v>7389</v>
+      </c>
+      <c r="G29">
+        <v>12486</v>
+      </c>
+      <c r="H29">
+        <v>17580</v>
+      </c>
+      <c r="I29">
+        <v>11768</v>
+      </c>
+      <c r="J29">
+        <v>13304</v>
+      </c>
+      <c r="K29">
+        <v>4540</v>
+      </c>
+      <c r="L29">
+        <v>3210</v>
+      </c>
+      <c r="M29">
+        <v>231</v>
+      </c>
+      <c r="N29">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>